--- a/sputnik/personal/ee/155ee.xlsx
+++ b/sputnik/personal/ee/155ee.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="105" windowWidth="12120" windowHeight="8010"/>
@@ -11,12 +11,12 @@
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -24,15 +24,9 @@
     <t>Т2</t>
   </si>
   <si>
-    <t>День/ночь</t>
-  </si>
-  <si>
     <t xml:space="preserve">Тариф </t>
   </si>
   <si>
-    <t>Сумма оплаты</t>
-  </si>
-  <si>
     <t>Дата оплаты</t>
   </si>
   <si>
@@ -42,35 +36,32 @@
     <t xml:space="preserve">кВт/ч к оплате </t>
   </si>
   <si>
-    <t>Начислены пени за просрочку оплаты за ЭЭ с 05.05.2018 по 04.08.2018 -90дн.   1655,65 х (90-40) х 0,1% = 82,78</t>
-  </si>
-  <si>
-    <t>Начислены пени за просрочку оплаты за ЭЭ с 04.08.2018 по 28.12.2018 -145дн.   2700,40 х (145-40) х 0,1% = 283,54</t>
-  </si>
-  <si>
-    <t>Оплачено 2588,78 - 2589,55 = -0,77коп. к доплате. Начислены пени за просрочку оплаты за ЭЭ с 28.12.2018 по 11.03.2018 - 72дн.   2589,55 х (72-40) х 0,1% = 82,87</t>
-  </si>
-  <si>
-    <t>Общая сумма задолженности на 11.03.2019 (82,78 + 283,54 + 0,77 + 82,87)</t>
-  </si>
-  <si>
-    <t>Начислены пени за просрочку оплаты за ЭЭ с 11.03.2019 по 05.06.2019 -85дн.   3485,79 х (85-40) х 0,1% = 156,86</t>
-  </si>
-  <si>
-    <t>Начислены пени за просрочку оплаты за ЭЭ с 05.06.2019 по 01.10.2019 -117дн.  1957,60 х (117-40) х 0,1% = 150,74</t>
-  </si>
-  <si>
-    <t>оплачены пени</t>
+    <t>День/ ночь</t>
+  </si>
+  <si>
+    <t>Начислено по представленым показаниям и действующему тарифу</t>
+  </si>
+  <si>
+    <t>всего начислено к оплате</t>
+  </si>
+  <si>
+    <t>оплачено</t>
+  </si>
+  <si>
+    <t>итого за период</t>
+  </si>
+  <si>
+    <t>к доплате</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="#,##0.00\ &quot;₽&quot;"/>
+    <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;₽&quot;"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -101,41 +92,16 @@
       <family val="1"/>
       <charset val="204"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="5">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -171,35 +137,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -211,13 +153,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -226,45 +168,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -326,7 +236,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -358,10 +268,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -393,7 +302,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -569,162 +477,190 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F2:F3"/>
+      <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="13.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="13.42578125" style="1" customWidth="1"/>
     <col min="4" max="4" width="21" style="1" customWidth="1"/>
     <col min="5" max="5" width="10.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="20.28515625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="13" style="1" customWidth="1"/>
     <col min="9" max="9" width="10.28515625" style="1" customWidth="1"/>
     <col min="10" max="12" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:8" ht="53.25" customHeight="1">
+      <c r="A1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="E1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="4" t="s">
+      <c r="F1" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="8">
-        <v>43787</v>
-      </c>
-      <c r="B2" s="9" t="s">
+      <c r="G1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="3">
+        <v>43462</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="2">
-        <v>4365</v>
-      </c>
-      <c r="D2" s="2">
-        <f>SUM(C2,-C4)</f>
-        <v>600</v>
-      </c>
-      <c r="E2" s="7">
-        <v>4.49</v>
-      </c>
-      <c r="F2" s="5">
-        <f>D2*E2</f>
-        <v>2694</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="8"/>
-      <c r="B3" s="9" t="s">
+        <v>2191</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="3"/>
+      <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="2">
-        <v>1949</v>
-      </c>
-      <c r="D3" s="2">
-        <f>SUM(C3,-C5)</f>
-        <v>300</v>
-      </c>
-      <c r="E3" s="7">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="F3" s="5">
-        <f>D3*E3</f>
-        <v>729</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+        <v>996</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="8">
-        <v>43787</v>
+        <v>43535</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="2">
-        <v>3765</v>
+        <v>2652</v>
       </c>
       <c r="D4" s="2">
-        <f>SUM(C4,-C8)</f>
-        <v>127</v>
+        <f>SUM(C4,-C2)</f>
+        <v>461</v>
       </c>
       <c r="E4" s="7">
-        <v>4.49</v>
-      </c>
-      <c r="F4" s="5">
+        <v>4.57</v>
+      </c>
+      <c r="F4" s="10">
         <f>D4*E4</f>
-        <v>570.23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+        <v>2106.77</v>
+      </c>
+      <c r="G4" s="12">
+        <f>SUM(F4,F5)</f>
+        <v>2589.5500000000002</v>
+      </c>
+      <c r="H4" s="12">
+        <v>2588.7800000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="8"/>
       <c r="B5" s="9" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="2">
-        <v>1649</v>
+        <v>1198</v>
       </c>
       <c r="D5" s="2">
-        <f>SUM(C5,-C9)</f>
-        <v>48</v>
+        <f t="shared" ref="D5:D14" si="0">SUM(C5,-C3)</f>
+        <v>202</v>
       </c>
       <c r="E5" s="7">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="F5" s="5">
+        <v>2.39</v>
+      </c>
+      <c r="F5" s="10">
         <f>D5*E5</f>
-        <v>116.64000000000001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="11">
-        <v>43752</v>
-      </c>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13">
-        <v>757.56</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="14">
-        <v>43739</v>
-      </c>
-      <c r="B7" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="19"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="20"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+        <v>482.78000000000003</v>
+      </c>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="8">
+        <v>43621</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="2">
+        <v>3261</v>
+      </c>
+      <c r="D6" s="2">
+        <f t="shared" si="0"/>
+        <v>609</v>
+      </c>
+      <c r="E6" s="7">
+        <v>4.57</v>
+      </c>
+      <c r="F6" s="10">
+        <f>D6*E6</f>
+        <v>2783.13</v>
+      </c>
+      <c r="G6" s="12">
+        <f>SUM(F6,F7)</f>
+        <v>3485.79</v>
+      </c>
+      <c r="H6" s="12">
+        <v>3485.79</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="8"/>
+      <c r="B7" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="2">
+        <v>1492</v>
+      </c>
+      <c r="D7" s="2">
+        <f t="shared" si="0"/>
+        <v>294</v>
+      </c>
+      <c r="E7" s="7">
+        <v>2.39</v>
+      </c>
+      <c r="F7" s="10">
+        <f>D7*E7</f>
+        <v>702.66000000000008</v>
+      </c>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="8">
         <v>43739</v>
       </c>
@@ -735,18 +671,25 @@
         <v>3638</v>
       </c>
       <c r="D8" s="2">
-        <f>SUM(C8,-C11)</f>
+        <f t="shared" si="0"/>
         <v>377</v>
       </c>
       <c r="E8" s="7">
         <v>4.49</v>
       </c>
-      <c r="F8" s="5">
+      <c r="F8" s="10">
         <f>D8*E8</f>
         <v>1692.73</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G8" s="12">
+        <f>SUM(F8,F9)</f>
+        <v>1957.6</v>
+      </c>
+      <c r="H8" s="12">
+        <v>1957.6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="8"/>
       <c r="B9" s="9" t="s">
         <v>1</v>
@@ -755,293 +698,172 @@
         <v>1601</v>
       </c>
       <c r="D9" s="2">
-        <f>SUM(C9,-C12)</f>
+        <f t="shared" si="0"/>
         <v>109</v>
       </c>
       <c r="E9" s="7">
         <v>2.4300000000000002</v>
       </c>
-      <c r="F9" s="5">
+      <c r="F9" s="10">
         <f>D9*E9</f>
         <v>264.87</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="15">
-        <v>43621</v>
-      </c>
-      <c r="B10" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="19"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="20"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="8">
+        <v>43752</v>
+      </c>
+      <c r="B10" s="9"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12">
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="8">
-        <v>43621</v>
+        <v>43787</v>
       </c>
       <c r="B11" s="9" t="s">
         <v>0</v>
       </c>
       <c r="C11" s="2">
-        <v>3261</v>
+        <v>3765</v>
       </c>
       <c r="D11" s="2">
-        <f>SUM(C11,-C15)</f>
-        <v>609</v>
+        <f>SUM(C11,-C8)</f>
+        <v>127</v>
       </c>
       <c r="E11" s="7">
-        <v>4.57</v>
-      </c>
-      <c r="F11" s="5">
+        <v>4.49</v>
+      </c>
+      <c r="F11" s="10">
         <f>D11*E11</f>
-        <v>2783.13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+        <v>570.23</v>
+      </c>
+      <c r="G11" s="12">
+        <f>SUM(F11,F12)</f>
+        <v>686.87</v>
+      </c>
+      <c r="H11" s="12">
+        <v>686.87</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="8"/>
       <c r="B12" s="9" t="s">
         <v>1</v>
       </c>
       <c r="C12" s="2">
-        <v>1492</v>
+        <v>1649</v>
       </c>
       <c r="D12" s="2">
-        <f>SUM(C12,-C16)</f>
-        <v>294</v>
+        <f>SUM(C12,-C9)</f>
+        <v>48</v>
       </c>
       <c r="E12" s="7">
-        <v>2.39</v>
-      </c>
-      <c r="F12" s="5">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F12" s="10">
         <f>D12*E12</f>
-        <v>702.66000000000008</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="16">
-        <v>43535</v>
-      </c>
-      <c r="B13" s="18" t="s">
+        <v>116.64000000000001</v>
+      </c>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="8">
+        <v>43787</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="2">
+        <v>4365</v>
+      </c>
+      <c r="D13" s="2">
+        <f t="shared" si="0"/>
+        <v>600</v>
+      </c>
+      <c r="E13" s="7">
+        <v>4.49</v>
+      </c>
+      <c r="F13" s="10">
+        <f>D13*E13</f>
+        <v>2694</v>
+      </c>
+      <c r="G13" s="12">
+        <f>SUM(F13,F14)</f>
+        <v>3423</v>
+      </c>
+      <c r="H13" s="12">
+        <v>3423</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="8"/>
+      <c r="B14" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" s="2">
+        <v>1949</v>
+      </c>
+      <c r="D14" s="2">
+        <f t="shared" si="0"/>
+        <v>300</v>
+      </c>
+      <c r="E14" s="7">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F14" s="10">
+        <f>D14*E14</f>
+        <v>729</v>
+      </c>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="F15" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="G15" s="12">
+        <f>SUM(G4:G14)</f>
+        <v>12142.810000000001</v>
+      </c>
+      <c r="H15" s="12">
+        <f>SUM(H4:H14)</f>
+        <v>12142.810000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="F16" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="19"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="17">
-        <v>449.96</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="3">
-        <v>43535</v>
-      </c>
-      <c r="B14" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14" s="22"/>
-      <c r="D14" s="22"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="23"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="8">
-        <v>43535</v>
-      </c>
-      <c r="B15" s="9" t="s">
+      <c r="G16" s="12"/>
+      <c r="H16" s="12">
+        <f>SUM(H15,-G15)</f>
         <v>0</v>
       </c>
-      <c r="C15" s="2">
-        <v>2652</v>
-      </c>
-      <c r="D15" s="2">
-        <v>461</v>
-      </c>
-      <c r="E15" s="7">
-        <v>4.57</v>
-      </c>
-      <c r="F15" s="5">
-        <f>D15*E15</f>
-        <v>2106.77</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="8"/>
-      <c r="B16" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C16" s="2">
-        <v>1198</v>
-      </c>
-      <c r="D16" s="2">
-        <v>202</v>
-      </c>
-      <c r="E16" s="7">
-        <v>2.39</v>
-      </c>
-      <c r="F16" s="5">
-        <f>D16*E16</f>
-        <v>482.78000000000003</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="10">
-        <v>43462</v>
-      </c>
-      <c r="B17" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="C17" s="22"/>
-      <c r="D17" s="22"/>
-      <c r="E17" s="22"/>
-      <c r="F17" s="23"/>
-    </row>
-    <row r="18" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="10">
-        <v>43316</v>
-      </c>
-      <c r="B18" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C18" s="22"/>
-      <c r="D18" s="22"/>
-      <c r="E18" s="22"/>
-      <c r="F18" s="23"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="3">
-        <v>43462</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C19" s="2">
-        <v>2191</v>
-      </c>
-      <c r="D19" s="2">
-        <f>C19-C21</f>
-        <v>504</v>
-      </c>
-      <c r="E19" s="5">
-        <v>4.5</v>
-      </c>
-      <c r="F19" s="5">
-        <f>D19*E19</f>
-        <v>2268</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="3"/>
-      <c r="B20" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C20" s="2">
-        <v>996</v>
-      </c>
-      <c r="D20" s="2">
-        <f>C20-C22</f>
-        <v>184</v>
-      </c>
-      <c r="E20" s="5">
-        <v>2.35</v>
-      </c>
-      <c r="F20" s="5">
-        <f>D20*E20</f>
-        <v>432.40000000000003</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="3">
-        <v>43316</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C21" s="2">
-        <v>1687</v>
-      </c>
-      <c r="D21" s="2">
-        <f>C21-C23</f>
-        <v>311</v>
-      </c>
-      <c r="E21" s="5">
-        <v>4.5</v>
-      </c>
-      <c r="F21" s="5">
-        <f>D21*E21</f>
-        <v>1399.5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="3"/>
-      <c r="B22" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C22" s="2">
-        <v>812</v>
-      </c>
-      <c r="D22" s="2">
-        <f>C22-C24</f>
-        <v>109</v>
-      </c>
-      <c r="E22" s="5">
-        <v>2.35</v>
-      </c>
-      <c r="F22" s="5">
-        <f>D22*E22</f>
-        <v>256.15000000000003</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="3">
-        <v>43225</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C23" s="4">
-        <v>1376</v>
-      </c>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C24" s="4">
-        <v>703</v>
-      </c>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="B10:F10"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="B14:F14"/>
-    <mergeCell ref="B17:F17"/>
-    <mergeCell ref="B18:F18"/>
-  </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="88" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="85" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1050,12 +872,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/sputnik/personal/ee/155ee.xlsx
+++ b/sputnik/personal/ee/155ee.xlsx
@@ -576,7 +576,7 @@
         <v>4.57</v>
       </c>
       <c r="F4" s="10">
-        <f>D4*E4</f>
+        <f t="shared" ref="F4:F9" si="0">D4*E4</f>
         <v>2106.77</v>
       </c>
       <c r="G4" s="12">
@@ -596,14 +596,14 @@
         <v>1198</v>
       </c>
       <c r="D5" s="2">
-        <f t="shared" ref="D5:D14" si="0">SUM(C5,-C3)</f>
+        <f t="shared" ref="D5:D14" si="1">SUM(C5,-C3)</f>
         <v>202</v>
       </c>
       <c r="E5" s="7">
         <v>2.39</v>
       </c>
       <c r="F5" s="10">
-        <f>D5*E5</f>
+        <f t="shared" si="0"/>
         <v>482.78000000000003</v>
       </c>
       <c r="G5" s="12"/>
@@ -620,14 +620,14 @@
         <v>3261</v>
       </c>
       <c r="D6" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>609</v>
       </c>
       <c r="E6" s="7">
         <v>4.57</v>
       </c>
       <c r="F6" s="10">
-        <f>D6*E6</f>
+        <f t="shared" si="0"/>
         <v>2783.13</v>
       </c>
       <c r="G6" s="12">
@@ -647,14 +647,14 @@
         <v>1492</v>
       </c>
       <c r="D7" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>294</v>
       </c>
       <c r="E7" s="7">
         <v>2.39</v>
       </c>
       <c r="F7" s="10">
-        <f>D7*E7</f>
+        <f t="shared" si="0"/>
         <v>702.66000000000008</v>
       </c>
       <c r="G7" s="12"/>
@@ -671,14 +671,14 @@
         <v>3638</v>
       </c>
       <c r="D8" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>377</v>
       </c>
       <c r="E8" s="7">
         <v>4.49</v>
       </c>
       <c r="F8" s="10">
-        <f>D8*E8</f>
+        <f t="shared" si="0"/>
         <v>1692.73</v>
       </c>
       <c r="G8" s="12">
@@ -698,14 +698,14 @@
         <v>1601</v>
       </c>
       <c r="D9" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>109</v>
       </c>
       <c r="E9" s="7">
         <v>2.4300000000000002</v>
       </c>
       <c r="F9" s="10">
-        <f>D9*E9</f>
+        <f t="shared" si="0"/>
         <v>264.87</v>
       </c>
       <c r="G9" s="12"/>
@@ -787,7 +787,7 @@
         <v>4365</v>
       </c>
       <c r="D13" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>600</v>
       </c>
       <c r="E13" s="7">
@@ -814,7 +814,7 @@
         <v>1949</v>
       </c>
       <c r="D14" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>300</v>
       </c>
       <c r="E14" s="7">
@@ -853,7 +853,7 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="85" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/sputnik/personal/ee/155ee.xlsx
+++ b/sputnik/personal/ee/155ee.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="105" windowWidth="12120" windowHeight="8010"/>
@@ -11,7 +11,7 @@
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -57,11 +57,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;₽&quot;"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -236,7 +236,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -268,9 +268,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -302,6 +303,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -477,7 +479,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -487,7 +489,7 @@
       <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.42578125" style="1" customWidth="1"/>
     <col min="2" max="2" width="8.7109375" style="1" customWidth="1"/>
@@ -502,7 +504,7 @@
     <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="53.25" customHeight="1">
+    <row r="1" spans="1:8" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
@@ -528,7 +530,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>43462</v>
       </c>
@@ -544,7 +546,7 @@
       <c r="G2" s="12"/>
       <c r="H2" s="12"/>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="B3" s="2" t="s">
         <v>1</v>
@@ -558,7 +560,7 @@
       <c r="G3" s="12"/>
       <c r="H3" s="12"/>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <v>43535</v>
       </c>
@@ -587,7 +589,7 @@
         <v>2588.7800000000002</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="8"/>
       <c r="B5" s="9" t="s">
         <v>1</v>
@@ -609,7 +611,7 @@
       <c r="G5" s="12"/>
       <c r="H5" s="12"/>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <v>43621</v>
       </c>
@@ -638,7 +640,7 @@
         <v>3485.79</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="8"/>
       <c r="B7" s="9" t="s">
         <v>1</v>
@@ -660,7 +662,7 @@
       <c r="G7" s="12"/>
       <c r="H7" s="12"/>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <v>43739</v>
       </c>
@@ -689,7 +691,7 @@
         <v>1957.6</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="8"/>
       <c r="B9" s="9" t="s">
         <v>1</v>
@@ -711,7 +713,7 @@
       <c r="G9" s="12"/>
       <c r="H9" s="12"/>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <v>43752</v>
       </c>
@@ -725,7 +727,7 @@
         <v>0.77</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <v>43787</v>
       </c>
@@ -754,7 +756,7 @@
         <v>686.87</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="8"/>
       <c r="B12" s="9" t="s">
         <v>1</v>
@@ -776,7 +778,7 @@
       <c r="G12" s="12"/>
       <c r="H12" s="12"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
         <v>43787</v>
       </c>
@@ -805,7 +807,7 @@
         <v>3423</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="8"/>
       <c r="B14" s="9" t="s">
         <v>1</v>
@@ -827,7 +829,7 @@
       <c r="G14" s="12"/>
       <c r="H14" s="12"/>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F15" s="11" t="s">
         <v>10</v>
       </c>
@@ -840,7 +842,7 @@
         <v>12142.810000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F16" s="11" t="s">
         <v>11</v>
       </c>
@@ -858,12 +860,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -872,12 +874,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/sputnik/personal/ee/155ee.xlsx
+++ b/sputnik/personal/ee/155ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -483,10 +483,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:H1"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -830,32 +830,134 @@
       <c r="H14" s="12"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F15" s="11" t="s">
+      <c r="A15" s="8">
+        <v>44070</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" s="2">
+        <v>4513</v>
+      </c>
+      <c r="D15" s="2">
+        <f t="shared" ref="D15:D16" si="2">SUM(C15,-C13)</f>
+        <v>148</v>
+      </c>
+      <c r="E15" s="7">
+        <v>4.71</v>
+      </c>
+      <c r="F15" s="10">
+        <f>D15*E15</f>
+        <v>697.08</v>
+      </c>
+      <c r="G15" s="12">
+        <f>SUM(F15,F16)</f>
+        <v>814.38</v>
+      </c>
+      <c r="H15" s="12">
+        <v>814.38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="8"/>
+      <c r="B16" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" s="2">
+        <v>1995</v>
+      </c>
+      <c r="D16" s="2">
+        <f t="shared" si="2"/>
+        <v>46</v>
+      </c>
+      <c r="E16" s="7">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F16" s="10">
+        <f>D16*E16</f>
+        <v>117.3</v>
+      </c>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="8">
+        <v>44070</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" s="2">
+        <v>5513</v>
+      </c>
+      <c r="D17" s="2">
+        <f t="shared" ref="D17:D18" si="3">SUM(C17,-C15)</f>
+        <v>1000</v>
+      </c>
+      <c r="E17" s="7">
+        <v>4.71</v>
+      </c>
+      <c r="F17" s="10">
+        <f>D17*E17</f>
+        <v>4710</v>
+      </c>
+      <c r="G17" s="12">
+        <f>SUM(F17,F18)</f>
+        <v>5475</v>
+      </c>
+      <c r="H17" s="12">
+        <v>5475</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="8"/>
+      <c r="B18" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" s="2">
+        <v>2295</v>
+      </c>
+      <c r="D18" s="2">
+        <f t="shared" si="3"/>
+        <v>300</v>
+      </c>
+      <c r="E18" s="7">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F18" s="10">
+        <f>D18*E18</f>
+        <v>765</v>
+      </c>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F19" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="G15" s="12">
-        <f>SUM(G4:G14)</f>
-        <v>12142.810000000001</v>
-      </c>
-      <c r="H15" s="12">
-        <f>SUM(H4:H14)</f>
-        <v>12142.810000000001</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F16" s="11" t="s">
+      <c r="G19" s="12">
+        <f>SUM(G4:G18)</f>
+        <v>18432.190000000002</v>
+      </c>
+      <c r="H19" s="12">
+        <f>SUM(H4:H18)</f>
+        <v>18432.190000000002</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F20" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="G16" s="12"/>
-      <c r="H16" s="12">
-        <f>SUM(H15,-G15)</f>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12">
+        <f>SUM(H19,-G19)</f>
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/sputnik/personal/ee/155ee.xlsx
+++ b/sputnik/personal/ee/155ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -141,20 +141,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -483,10 +477,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -505,452 +499,183 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
-        <v>43462</v>
-      </c>
-      <c r="B2" s="2" t="s">
+      <c r="A2" s="6">
+        <v>43787</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="2">
-        <v>2191</v>
+        <v>4365</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="5"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
-      <c r="B3" s="2" t="s">
+      <c r="A3" s="6"/>
+      <c r="B3" s="7" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="2">
-        <v>996</v>
+        <v>1949</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="5"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="8">
-        <v>43535</v>
-      </c>
-      <c r="B4" s="9" t="s">
+      <c r="A4" s="6">
+        <v>44070</v>
+      </c>
+      <c r="B4" s="7" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="2">
-        <v>2652</v>
+        <v>4513</v>
       </c>
       <c r="D4" s="2">
-        <f>SUM(C4,-C2)</f>
-        <v>461</v>
-      </c>
-      <c r="E4" s="7">
-        <v>4.57</v>
-      </c>
-      <c r="F4" s="10">
-        <f t="shared" ref="F4:F9" si="0">D4*E4</f>
-        <v>2106.77</v>
-      </c>
-      <c r="G4" s="12">
+        <f t="shared" ref="D4:D5" si="0">SUM(C4,-C2)</f>
+        <v>148</v>
+      </c>
+      <c r="E4" s="5">
+        <v>4.71</v>
+      </c>
+      <c r="F4" s="8">
+        <f t="shared" ref="F2:F7" si="1">D4*E4</f>
+        <v>697.08</v>
+      </c>
+      <c r="G4" s="10">
         <f>SUM(F4,F5)</f>
-        <v>2589.5500000000002</v>
-      </c>
-      <c r="H4" s="12">
-        <v>2588.7800000000002</v>
+        <v>814.38</v>
+      </c>
+      <c r="H4" s="10">
+        <v>814.38</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="8"/>
-      <c r="B5" s="9" t="s">
+      <c r="A5" s="6"/>
+      <c r="B5" s="7" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="2">
-        <v>1198</v>
+        <v>1995</v>
       </c>
       <c r="D5" s="2">
-        <f t="shared" ref="D5:D14" si="1">SUM(C5,-C3)</f>
-        <v>202</v>
-      </c>
-      <c r="E5" s="7">
-        <v>2.39</v>
-      </c>
-      <c r="F5" s="10">
         <f t="shared" si="0"/>
-        <v>482.78000000000003</v>
-      </c>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
+        <v>46</v>
+      </c>
+      <c r="E5" s="5">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F5" s="8">
+        <f t="shared" si="1"/>
+        <v>117.3</v>
+      </c>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="8">
-        <v>43621</v>
-      </c>
-      <c r="B6" s="9" t="s">
+      <c r="A6" s="6">
+        <v>44070</v>
+      </c>
+      <c r="B6" s="7" t="s">
         <v>0</v>
       </c>
       <c r="C6" s="2">
-        <v>3261</v>
+        <v>5513</v>
       </c>
       <c r="D6" s="2">
+        <f t="shared" ref="D6:D7" si="2">SUM(C6,-C4)</f>
+        <v>1000</v>
+      </c>
+      <c r="E6" s="5">
+        <v>4.71</v>
+      </c>
+      <c r="F6" s="8">
         <f t="shared" si="1"/>
-        <v>609</v>
-      </c>
-      <c r="E6" s="7">
-        <v>4.57</v>
-      </c>
-      <c r="F6" s="10">
-        <f t="shared" si="0"/>
-        <v>2783.13</v>
-      </c>
-      <c r="G6" s="12">
+        <v>4710</v>
+      </c>
+      <c r="G6" s="10">
         <f>SUM(F6,F7)</f>
-        <v>3485.79</v>
-      </c>
-      <c r="H6" s="12">
-        <v>3485.79</v>
+        <v>5475</v>
+      </c>
+      <c r="H6" s="10">
+        <v>5475</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="8"/>
-      <c r="B7" s="9" t="s">
+      <c r="A7" s="6"/>
+      <c r="B7" s="7" t="s">
         <v>1</v>
       </c>
       <c r="C7" s="2">
-        <v>1492</v>
+        <v>2295</v>
       </c>
       <c r="D7" s="2">
+        <f t="shared" si="2"/>
+        <v>300</v>
+      </c>
+      <c r="E7" s="5">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F7" s="8">
         <f t="shared" si="1"/>
-        <v>294</v>
-      </c>
-      <c r="E7" s="7">
-        <v>2.39</v>
-      </c>
-      <c r="F7" s="10">
-        <f t="shared" si="0"/>
-        <v>702.66000000000008</v>
-      </c>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
+        <v>765</v>
+      </c>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="8">
-        <v>43739</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C8" s="2">
-        <v>3638</v>
-      </c>
-      <c r="D8" s="2">
-        <f t="shared" si="1"/>
-        <v>377</v>
-      </c>
-      <c r="E8" s="7">
-        <v>4.49</v>
-      </c>
-      <c r="F8" s="10">
-        <f t="shared" si="0"/>
-        <v>1692.73</v>
-      </c>
-      <c r="G8" s="12">
-        <f>SUM(F8,F9)</f>
-        <v>1957.6</v>
-      </c>
-      <c r="H8" s="12">
-        <v>1957.6</v>
+      <c r="F8" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="10">
+        <f>SUM(G2:G7)</f>
+        <v>6289.38</v>
+      </c>
+      <c r="H8" s="10">
+        <f>SUM(H2:H7)</f>
+        <v>6289.38</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="8"/>
-      <c r="B9" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" s="2">
-        <v>1601</v>
-      </c>
-      <c r="D9" s="2">
-        <f t="shared" si="1"/>
-        <v>109</v>
-      </c>
-      <c r="E9" s="7">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="F9" s="10">
-        <f t="shared" si="0"/>
-        <v>264.87</v>
-      </c>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="8">
-        <v>43752</v>
-      </c>
-      <c r="B10" s="9"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12">
-        <v>0.77</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="8">
-        <v>43787</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C11" s="2">
-        <v>3765</v>
-      </c>
-      <c r="D11" s="2">
-        <f>SUM(C11,-C8)</f>
-        <v>127</v>
-      </c>
-      <c r="E11" s="7">
-        <v>4.49</v>
-      </c>
-      <c r="F11" s="10">
-        <f>D11*E11</f>
-        <v>570.23</v>
-      </c>
-      <c r="G11" s="12">
-        <f>SUM(F11,F12)</f>
-        <v>686.87</v>
-      </c>
-      <c r="H11" s="12">
-        <v>686.87</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="8"/>
-      <c r="B12" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C12" s="2">
-        <v>1649</v>
-      </c>
-      <c r="D12" s="2">
-        <f>SUM(C12,-C9)</f>
-        <v>48</v>
-      </c>
-      <c r="E12" s="7">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="F12" s="10">
-        <f>D12*E12</f>
-        <v>116.64000000000001</v>
-      </c>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="8">
-        <v>43787</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C13" s="2">
-        <v>4365</v>
-      </c>
-      <c r="D13" s="2">
-        <f t="shared" si="1"/>
-        <v>600</v>
-      </c>
-      <c r="E13" s="7">
-        <v>4.49</v>
-      </c>
-      <c r="F13" s="10">
-        <f>D13*E13</f>
-        <v>2694</v>
-      </c>
-      <c r="G13" s="12">
-        <f>SUM(F13,F14)</f>
-        <v>3423</v>
-      </c>
-      <c r="H13" s="12">
-        <v>3423</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="8"/>
-      <c r="B14" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C14" s="2">
-        <v>1949</v>
-      </c>
-      <c r="D14" s="2">
-        <f t="shared" si="1"/>
-        <v>300</v>
-      </c>
-      <c r="E14" s="7">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="F14" s="10">
-        <f>D14*E14</f>
-        <v>729</v>
-      </c>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="8">
-        <v>44070</v>
-      </c>
-      <c r="B15" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C15" s="2">
-        <v>4513</v>
-      </c>
-      <c r="D15" s="2">
-        <f t="shared" ref="D15:D16" si="2">SUM(C15,-C13)</f>
-        <v>148</v>
-      </c>
-      <c r="E15" s="7">
-        <v>4.71</v>
-      </c>
-      <c r="F15" s="10">
-        <f>D15*E15</f>
-        <v>697.08</v>
-      </c>
-      <c r="G15" s="12">
-        <f>SUM(F15,F16)</f>
-        <v>814.38</v>
-      </c>
-      <c r="H15" s="12">
-        <v>814.38</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="8"/>
-      <c r="B16" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C16" s="2">
-        <v>1995</v>
-      </c>
-      <c r="D16" s="2">
-        <f t="shared" si="2"/>
-        <v>46</v>
-      </c>
-      <c r="E16" s="7">
-        <v>2.5499999999999998</v>
-      </c>
-      <c r="F16" s="10">
-        <f>D16*E16</f>
-        <v>117.3</v>
-      </c>
-      <c r="G16" s="12"/>
-      <c r="H16" s="12"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="8">
-        <v>44070</v>
-      </c>
-      <c r="B17" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C17" s="2">
-        <v>5513</v>
-      </c>
-      <c r="D17" s="2">
-        <f t="shared" ref="D17:D18" si="3">SUM(C17,-C15)</f>
-        <v>1000</v>
-      </c>
-      <c r="E17" s="7">
-        <v>4.71</v>
-      </c>
-      <c r="F17" s="10">
-        <f>D17*E17</f>
-        <v>4710</v>
-      </c>
-      <c r="G17" s="12">
-        <f>SUM(F17,F18)</f>
-        <v>5475</v>
-      </c>
-      <c r="H17" s="12">
-        <v>5475</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="8"/>
-      <c r="B18" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C18" s="2">
-        <v>2295</v>
-      </c>
-      <c r="D18" s="2">
-        <f t="shared" si="3"/>
-        <v>300</v>
-      </c>
-      <c r="E18" s="7">
-        <v>2.5499999999999998</v>
-      </c>
-      <c r="F18" s="10">
-        <f>D18*E18</f>
-        <v>765</v>
-      </c>
-      <c r="G18" s="12"/>
-      <c r="H18" s="12"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F19" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="G19" s="12">
-        <f>SUM(G4:G18)</f>
-        <v>18432.190000000002</v>
-      </c>
-      <c r="H19" s="12">
-        <f>SUM(H4:H18)</f>
-        <v>18432.190000000002</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F20" s="11" t="s">
+      <c r="F9" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G20" s="12"/>
-      <c r="H20" s="12">
-        <f>SUM(H19,-G19)</f>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10">
+        <f>SUM(H8,-G8)</f>
         <v>0</v>
       </c>
     </row>

--- a/sputnik/personal/ee/155ee.xlsx
+++ b/sputnik/personal/ee/155ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -477,10 +477,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -572,7 +572,7 @@
         <v>4.71</v>
       </c>
       <c r="F4" s="8">
-        <f t="shared" ref="F2:F7" si="1">D4*E4</f>
+        <f t="shared" ref="F4:F7" si="1">D4*E4</f>
         <v>697.08</v>
       </c>
       <c r="G4" s="10">
@@ -657,26 +657,128 @@
       <c r="H7" s="10"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F8" s="9" t="s">
+      <c r="A8" s="6">
+        <v>44329</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="2">
+        <v>5651</v>
+      </c>
+      <c r="D8" s="2">
+        <f t="shared" ref="D8:D9" si="3">SUM(C8,-C6)</f>
+        <v>138</v>
+      </c>
+      <c r="E8" s="5">
+        <v>4.71</v>
+      </c>
+      <c r="F8" s="8">
+        <f t="shared" ref="F8:F9" si="4">D8*E8</f>
+        <v>649.98</v>
+      </c>
+      <c r="G8" s="10">
+        <f>SUM(F8,F9)</f>
+        <v>769.83</v>
+      </c>
+      <c r="H8" s="10">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="6"/>
+      <c r="B9" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="2">
+        <v>2342</v>
+      </c>
+      <c r="D9" s="2">
+        <f t="shared" si="3"/>
+        <v>47</v>
+      </c>
+      <c r="E9" s="5">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F9" s="8">
+        <f t="shared" si="4"/>
+        <v>119.85</v>
+      </c>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="6">
+        <v>44329</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="2">
+        <v>6651</v>
+      </c>
+      <c r="D10" s="2">
+        <f t="shared" ref="D10:D11" si="5">SUM(C10,-C8)</f>
+        <v>1000</v>
+      </c>
+      <c r="E10" s="5">
+        <v>4.71</v>
+      </c>
+      <c r="F10" s="8">
+        <f t="shared" ref="F10:F11" si="6">D10*E10</f>
+        <v>4710</v>
+      </c>
+      <c r="G10" s="10">
+        <f>SUM(F10,F11)</f>
+        <v>5985</v>
+      </c>
+      <c r="H10" s="10">
+        <v>5985</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="6"/>
+      <c r="B11" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="2">
+        <v>2842</v>
+      </c>
+      <c r="D11" s="2">
+        <f t="shared" si="5"/>
+        <v>500</v>
+      </c>
+      <c r="E11" s="5">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F11" s="8">
+        <f t="shared" si="6"/>
+        <v>1275</v>
+      </c>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F12" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="G8" s="10">
-        <f>SUM(G2:G7)</f>
-        <v>6289.38</v>
-      </c>
-      <c r="H8" s="10">
-        <f>SUM(H2:H7)</f>
-        <v>6289.38</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F9" s="9" t="s">
+      <c r="G12" s="10">
+        <f>SUM(G2:G11)</f>
+        <v>13044.21</v>
+      </c>
+      <c r="H12" s="10">
+        <f>SUM(H2:H11)</f>
+        <v>13044.380000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F13" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10">
-        <f>SUM(H8,-G8)</f>
-        <v>0</v>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10">
+        <f>SUM(H12,-G12)</f>
+        <v>0.17000000000189175</v>
       </c>
     </row>
   </sheetData>

--- a/sputnik/personal/ee/155ee.xlsx
+++ b/sputnik/personal/ee/155ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -477,10 +477,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -759,26 +759,77 @@
       <c r="H11" s="10"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F12" s="9" t="s">
+      <c r="A12" s="6">
+        <v>44530</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="2">
+        <v>7389</v>
+      </c>
+      <c r="D12" s="2">
+        <f t="shared" ref="D12:D13" si="7">SUM(C12,-C10)</f>
+        <v>738</v>
+      </c>
+      <c r="E12" s="5">
+        <v>4.96</v>
+      </c>
+      <c r="F12" s="8">
+        <f t="shared" ref="F12:F13" si="8">D12*E12</f>
+        <v>3660.48</v>
+      </c>
+      <c r="G12" s="10">
+        <f>SUM(F12,F13)</f>
+        <v>5000.4799999999996</v>
+      </c>
+      <c r="H12" s="10">
+        <v>5001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="6"/>
+      <c r="B13" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="2">
+        <v>3342</v>
+      </c>
+      <c r="D13" s="2">
+        <f t="shared" si="7"/>
+        <v>500</v>
+      </c>
+      <c r="E13" s="5">
+        <v>2.68</v>
+      </c>
+      <c r="F13" s="8">
+        <f t="shared" si="8"/>
+        <v>1340</v>
+      </c>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F14" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="G12" s="10">
-        <f>SUM(G2:G11)</f>
-        <v>13044.21</v>
-      </c>
-      <c r="H12" s="10">
-        <f>SUM(H2:H11)</f>
-        <v>13044.380000000001</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F13" s="9" t="s">
+      <c r="G14" s="10">
+        <f>SUM(G2:G13)</f>
+        <v>18044.689999999999</v>
+      </c>
+      <c r="H14" s="10">
+        <f>SUM(H2:H13)</f>
+        <v>18045.38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F15" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10">
-        <f>SUM(H12,-G12)</f>
-        <v>0.17000000000189175</v>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10">
+        <f>SUM(H14,-G14)</f>
+        <v>0.69000000000232831</v>
       </c>
     </row>
   </sheetData>
